--- a/Administrasi/Surat Keluar Pengurus.xlsx
+++ b/Administrasi/Surat Keluar Pengurus.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
     <sheet name="A2" sheetId="2" r:id="rId2"/>
     <sheet name="A3" sheetId="3" r:id="rId3"/>
     <sheet name="A4" sheetId="4" r:id="rId4"/>
+    <sheet name="A5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -155,6 +156,30 @@
   </si>
   <si>
     <t>Merna Nur Seftika</t>
+  </si>
+  <si>
+    <t>001/A5/HMJTI/SAINSTEK/VII/2021</t>
+  </si>
+  <si>
+    <t>Paguyangan, 22 Juli 2021</t>
+  </si>
+  <si>
+    <t>Pengurus HMJTI</t>
+  </si>
+  <si>
+    <t>Rapat Persiapan Workshop Informatika</t>
+  </si>
+  <si>
+    <t>Undangan Rapat</t>
+  </si>
+  <si>
+    <t>Google Meet</t>
+  </si>
+  <si>
+    <t>10.00 - Selesai</t>
+  </si>
+  <si>
+    <t>Minggu, 25 Juli 2021</t>
   </si>
 </sst>
 </file>
@@ -776,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,4 +1040,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Administrasi/Surat Keluar Pengurus.xlsx
+++ b/Administrasi/Surat Keluar Pengurus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Minggu, 25 Juli 2021</t>
+  </si>
+  <si>
+    <t>002/A3/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>Bumiayu, 4 September 2021</t>
+  </si>
+  <si>
+    <t>DPM-U</t>
+  </si>
+  <si>
+    <t>Sidang Istimewa BEM-U</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -789,6 +801,35 @@
         <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1046,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Administrasi/Surat Keluar Pengurus.xlsx
+++ b/Administrasi/Surat Keluar Pengurus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -192,13 +192,76 @@
   </si>
   <si>
     <t>Sidang Istimewa BEM-U</t>
+  </si>
+  <si>
+    <t>001/A2/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>Paguyangan, 12 September 2021</t>
+  </si>
+  <si>
+    <t>Paguyangan, 13 September 2021</t>
+  </si>
+  <si>
+    <t>Sapa Maba Informatika</t>
+  </si>
+  <si>
+    <t>Rabu, 15 September 2021</t>
+  </si>
+  <si>
+    <t>Jong Café</t>
+  </si>
+  <si>
+    <t>Intro &amp; Pengenalan Kampus kepada Maba</t>
+  </si>
+  <si>
+    <t>08.00 - Selesai</t>
+  </si>
+  <si>
+    <t>Rito Sigitta H, M.Kom</t>
+  </si>
+  <si>
+    <t>002/A2/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>Mahasiswa Informatika 2021</t>
+  </si>
+  <si>
+    <t>003/A2/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>004/A2/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>003/A1/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>004/A1/HMJTI/SAINSTEK/IX/2021</t>
+  </si>
+  <si>
+    <t>Pemberitahuan</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>09.00 WIB-Selesai</t>
+  </si>
+  <si>
+    <t>BEM-U</t>
+  </si>
+  <si>
+    <t>BEM-F Sainstek</t>
+  </si>
+  <si>
+    <t>Dekan FST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +274,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,12 +302,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +618,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,74 +1072,73 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,17 +1188,202 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,369 +1435,6 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">

--- a/Administrasi/Surat Keluar Pengurus.xlsx
+++ b/Administrasi/Surat Keluar Pengurus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
   <si>
     <t>Nomor Surat</t>
   </si>
@@ -255,6 +255,63 @@
   </si>
   <si>
     <t>Dekan FST</t>
+  </si>
+  <si>
+    <t>005/A2/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>Paguyangan, 24 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Paguyangan, 25 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Dies Natalis HMJTI Ke-V</t>
+  </si>
+  <si>
+    <t>Sabtu, 30 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Syukuran Dies Natalis Himpunan</t>
+  </si>
+  <si>
+    <t>005/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>BEM-FST</t>
+  </si>
+  <si>
+    <t>Kaprodi Informatika</t>
+  </si>
+  <si>
+    <t>Mahasiswa Informatika 2018</t>
+  </si>
+  <si>
+    <t>Mahasiswa Informatika 2019</t>
+  </si>
+  <si>
+    <t>Mahasiswa Informatika 2020</t>
+  </si>
+  <si>
+    <t>006/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>007/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>008/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>009/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>010/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>011/A1/HMJTI/SAINSTEK/X/2021</t>
+  </si>
+  <si>
+    <t>012/A1/HMJTI/SAINSTEK/X/2021</t>
   </si>
 </sst>
 </file>
@@ -302,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,179 +678,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1354,43 @@
         <v>74</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
